--- a/sample.xlsx
+++ b/sample.xlsx
@@ -7,7 +7,10 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NewSheet2!!" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NewSheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NewSheet2!! Copy" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -345,10 +348,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="001072BA"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,13 +398,72 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>43896.59793123518</v>
-      </c>
-      <c r="B2" t="n">
+        <v>43896.67957962631</v>
+      </c>
+    </row>
+    <row r="3"/>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C4" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>これは左から3番目にあるシート</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="001072BA"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
       </c>
     </row>
   </sheetData>
